--- a/public/assets/files/leads_example.xlsx
+++ b/public/assets/files/leads_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\apps\contractor\public\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -57,7 +57,7 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Sales 2</t>
+    <t>Sales 2 ID</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
